--- a/用例数据/沪A/公司债/固定收益RTGS 债券交易/测试结果.xlsx
+++ b/用例数据/沪A/公司债/固定收益RTGS 债券交易/测试结果.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\source\用例数据\沪A\公司债\固定收益RTGS 债券交易\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CA1DC9-5DA2-4361-9291-25D6B2ABEF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA5D9CC-EEA1-4FD1-85A4-EEF074C1EF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tradinglog" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="301">
   <si>
     <t>SERIALNUM</t>
   </si>
@@ -448,18 +448,12 @@
     <t>1</t>
   </si>
   <si>
-    <t>30002640</t>
-  </si>
-  <si>
     <t>005_001_001</t>
   </si>
   <si>
     <t>00</t>
   </si>
   <si>
-    <t>20230403113143</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -508,21 +502,12 @@
     <t>100.00000000</t>
   </si>
   <si>
-    <t>20230403000000</t>
-  </si>
-  <si>
     <t>-949159855.520</t>
   </si>
   <si>
     <t>900000000.000</t>
   </si>
   <si>
-    <t>773784575.460</t>
-  </si>
-  <si>
-    <t>45000000</t>
-  </si>
-  <si>
     <t>0.000</t>
   </si>
   <si>
@@ -562,9 +547,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>000007160156</t>
-  </si>
-  <si>
     <t>0.00</t>
   </si>
   <si>
@@ -592,9 +574,6 @@
     <t>605</t>
   </si>
   <si>
-    <t>30002643</t>
-  </si>
-  <si>
     <t>005_002_001</t>
   </si>
   <si>
@@ -610,21 +589,6 @@
     <t>947263432.240</t>
   </si>
   <si>
-    <t>4575696307.250</t>
-  </si>
-  <si>
-    <t>-45000000</t>
-  </si>
-  <si>
-    <t>000007160158</t>
-  </si>
-  <si>
-    <t>30003040</t>
-  </si>
-  <si>
-    <t>20230403113144</t>
-  </si>
-  <si>
     <t>0000000001</t>
   </si>
   <si>
@@ -643,9 +607,6 @@
     <t>-938080399.070</t>
   </si>
   <si>
-    <t>-9253123294.230</t>
-  </si>
-  <si>
     <t>935274.580</t>
   </si>
   <si>
@@ -661,12 +622,6 @@
     <t>935274575.340</t>
   </si>
   <si>
-    <t>000007160566</t>
-  </si>
-  <si>
-    <t>30003041</t>
-  </si>
-  <si>
     <t>000011721201</t>
   </si>
   <si>
@@ -676,12 +631,6 @@
     <t>932468751.610</t>
   </si>
   <si>
-    <t>8740503826.120</t>
-  </si>
-  <si>
-    <t>000007160567</t>
-  </si>
-  <si>
     <t>REGNAME</t>
   </si>
   <si>
@@ -907,42 +856,79 @@
     <t>CREDITBUYFROZENQTY</t>
   </si>
   <si>
-    <t>3789053728.960</t>
-  </si>
-  <si>
     <t>100.0000</t>
   </si>
   <si>
     <t>1.000000</t>
   </si>
   <si>
-    <t>3729875006.440</t>
-  </si>
-  <si>
     <t>105.46220617</t>
   </si>
   <si>
     <t>104.23115545</t>
   </si>
   <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>30002313</t>
+  </si>
+  <si>
+    <t>20230505235959</t>
+  </si>
+  <si>
+    <t>20230506143503</t>
+  </si>
+  <si>
+    <t>20230505000000</t>
+  </si>
+  <si>
+    <t>899082391813.100</t>
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-4741058219.4000</t>
-  </si>
-  <si>
-    <t>-4676372876.7000</t>
-  </si>
-  <si>
-    <t>4741058219.4000</t>
-  </si>
-  <si>
-    <t>4676372876.7000</t>
+  </si>
+  <si>
+    <t>000007310166</t>
+  </si>
+  <si>
+    <t>30002314</t>
+  </si>
+  <si>
+    <t>900923323097.960</t>
+  </si>
+  <si>
+    <t>000007310167</t>
+  </si>
+  <si>
+    <t>30002879</t>
+  </si>
+  <si>
+    <t>20230506143504</t>
+  </si>
+  <si>
+    <t>897225557741.520</t>
+  </si>
+  <si>
+    <t>18000000</t>
+  </si>
+  <si>
+    <t>000007310733</t>
+  </si>
+  <si>
+    <t>30002880</t>
+  </si>
+  <si>
+    <t>902725459622.910</t>
+  </si>
+  <si>
+    <t>000007310734</t>
+  </si>
+  <si>
+    <t>935274575.3400</t>
+  </si>
+  <si>
+    <t>1870549150.6800</t>
+  </si>
+  <si>
+    <t>948211643.8800</t>
   </si>
 </sst>
 </file>
@@ -1270,15 +1256,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EI29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="26" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1702,205 +1688,205 @@
     </row>
     <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="R2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT2" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV2" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AE2" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AM2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="BA2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BC2" s="1" t="s">
         <v>139</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="BM2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="BS2" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="BW2" s="1" t="s">
         <v>139</v>
@@ -1912,330 +1898,330 @@
         <v>139</v>
       </c>
       <c r="BZ2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="CR2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="CT2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="CV2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="DA2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="DC2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DD2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DE2" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="CA2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="CB2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="CD2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="CE2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="CG2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="CH2" s="1" t="s">
+      <c r="DF2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="DG2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="DJ2" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="CJ2" s="1" t="s">
+      <c r="DK2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DL2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DM2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DN2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="DO2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DP2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DQ2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DR2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DS2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DT2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DU2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DV2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DW2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DX2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DY2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="EC2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="ED2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="EE2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="EG2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EH2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="EI2" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="CK2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="CL2" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="CR2" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="CT2" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="CV2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="DA2" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="DC2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DD2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DE2" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="DF2" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="DG2" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="DJ2" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DK2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DL2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DM2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DN2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="DO2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DR2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DT2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DU2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DV2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DX2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DY2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="EC2" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="ED2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="EE2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="EG2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EH2" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="EI2" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>188</v>
+        <v>287</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="L3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="R3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV3" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AE3" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AM3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="BA3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>139</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="BM3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="BQ3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="BS3" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="BW3" s="1" t="s">
         <v>139</v>
@@ -2247,330 +2233,330 @@
         <v>139</v>
       </c>
       <c r="BZ3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CE3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CG3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="CJ3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="CK3" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="CL3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="CR3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="CT3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="CV3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="DA3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="DC3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DD3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DE3" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="CA3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="CB3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="CD3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="CE3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="CG3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="CH3" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="CJ3" s="1" t="s">
+      <c r="DF3" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="CK3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="CL3" s="1" t="s">
+      <c r="DG3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="DJ3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="DK3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DL3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DM3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DN3" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="CR3" s="1" t="s">
+      <c r="DO3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DP3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DQ3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DR3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DS3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DT3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DU3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DV3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DW3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DX3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DY3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="EC3" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="CT3" s="1" t="s">
+      <c r="ED3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="EE3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="EG3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EH3" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="CV3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="DA3" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="DC3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DD3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DE3" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="DF3" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="DG3" s="1" t="s">
+      <c r="EI3" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="DJ3" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DK3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DL3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DM3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DN3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="DO3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DR3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DT3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DU3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DV3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DX3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DY3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="EC3" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="ED3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="EE3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="EG3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EH3" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="EI3" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>197</v>
+        <v>290</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>198</v>
+        <v>281</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>198</v>
+        <v>291</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="P4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z4" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL4" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AA4" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AM4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AT4" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AC4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AL4" s="1" t="s">
+      <c r="AU4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AM4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="BA4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BB4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BC4" s="1" t="s">
         <v>139</v>
       </c>
       <c r="BF4" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="BG4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="BI4" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="BJ4" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="BM4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>299</v>
+        <v>176</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="BQ4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BR4" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="BS4" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="BT4" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="BV4" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="BW4" s="1" t="s">
         <v>139</v>
@@ -2582,330 +2568,330 @@
         <v>139</v>
       </c>
       <c r="BZ4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="CA4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CB4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CD4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CE4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CG4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="CH4" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="CJ4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="CK4" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="CL4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="CR4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="CT4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="CV4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="DA4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="DC4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DD4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DE4" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="CA4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="CB4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="CD4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="CE4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="CG4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="CH4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="CJ4" s="1" t="s">
+      <c r="DF4" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="CK4" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="CL4" s="1" t="s">
+      <c r="DG4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="DJ4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="DK4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DL4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DM4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DN4" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="CR4" s="1" t="s">
+      <c r="DO4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DP4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DQ4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DR4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DS4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DT4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DU4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DV4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DW4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DX4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DY4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="EC4" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="CT4" s="1" t="s">
+      <c r="ED4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="EE4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="EG4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EH4" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="CV4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="DA4" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="DC4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DD4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DE4" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="DF4" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="DG4" s="1" t="s">
+      <c r="EI4" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="DJ4" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DK4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DL4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DM4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DN4" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="DO4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DR4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DT4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DU4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DV4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DX4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DY4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="EC4" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="ED4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="EE4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="EG4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EH4" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="EI4" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>212</v>
+        <v>295</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="L5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AR5" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AS5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV5" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="AC5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AL5" s="1" t="s">
+      <c r="AX5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AM5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="BA5" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BB5" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BC5" s="1" t="s">
         <v>139</v>
       </c>
       <c r="BF5" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="BG5" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="BI5" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="BM5" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>299</v>
+        <v>176</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="BQ5" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BR5" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="BS5" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="BT5" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="BV5" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="BW5" s="1" t="s">
         <v>139</v>
@@ -2917,127 +2903,127 @@
         <v>139</v>
       </c>
       <c r="BZ5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="CA5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CB5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CD5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CE5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CG5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="CH5" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="CJ5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="CK5" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="CL5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="CR5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="CT5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="CV5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="DA5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="DC5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DD5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DE5" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="CA5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="CB5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="CD5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="CE5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="CG5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="CH5" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="CJ5" s="1" t="s">
+      <c r="DF5" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="CK5" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="CL5" s="1" t="s">
+      <c r="DG5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="DJ5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="DK5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DL5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DM5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DN5" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="CR5" s="1" t="s">
+      <c r="DO5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DP5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DQ5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DR5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DS5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DT5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DU5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DV5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DW5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DX5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DY5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="EC5" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="CT5" s="1" t="s">
+      <c r="ED5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="EE5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="EG5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EH5" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="CV5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="DA5" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="DC5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DD5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DE5" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="DF5" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="DG5" s="1" t="s">
+      <c r="EI5" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="DJ5" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="DK5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DL5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DM5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DN5" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="DO5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DR5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DT5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DU5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DV5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DX5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DY5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="EC5" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="ED5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="EE5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="EG5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EH5" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="EI5" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3075,8 +3061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313DEC33-91C6-4365-82BE-0A9569995E55}">
   <dimension ref="A1:CH12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3095,10 +3081,10 @@
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -3107,43 +3093,43 @@
         <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>2</v>
@@ -3158,1229 +3144,970 @@
         <v>19</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="BR1" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="Y2" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AO2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BO2" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AP2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="BP2" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>293</v>
+        <v>200</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="BS2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BU2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BW2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BX2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BY2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="CA2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="CB2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="CC2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="CD2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="CE2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="CF2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="CG2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>195</v>
+        <v>293</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>296</v>
+        <v>160</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>195</v>
+        <v>293</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>195</v>
+        <v>293</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="BK3" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BM3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BO3" s="1" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="BQ3" s="1" t="s">
-        <v>296</v>
+        <v>160</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="BS3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BU3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BX3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BY3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="CA3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="CB3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="CC3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="CD3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="CE3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="CF3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="CG3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AP4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="AQ4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AW4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AY4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BA4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BB4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BD4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BE4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BF4" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="BG4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="BI4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BJ4" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="BK4" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BM4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BO4" s="1" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="BQ4" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="BR4" s="1" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="BS4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BT4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BU4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BV4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BW4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BX4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BY4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="CA4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="CB4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="CC4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="CD4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="CE4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="CF4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="CG4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AW5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BD5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BE5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BF5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BG5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BH5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BI5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BJ5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BK5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BL5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BM5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BN5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BO5" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="BP5" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BQ5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BR5" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="BS5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BT5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BU5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BV5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BW5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BX5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BY5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BZ5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="CA5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="CB5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="CC5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="CD5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="CE5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="CF5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="CG5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="CH5" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
